--- a/Bot/proposal.xlsx
+++ b/Bot/proposal.xlsx
@@ -1,37 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,82 +46,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -414,183 +343,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>45006.70625746528</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Артём</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Wand1sh</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>759572442</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45006.71155673611</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>k</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Артём</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Wand1sh</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>759572442</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45006.71178487268</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Артём</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Wand1sh</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>759572442</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45007.44383011574</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Артём</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Wand1sh</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>759572442</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>45007.44883893518</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Артём</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Wand1sh</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>759572442</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45007.462469825</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>k</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Артём</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Wand1sh</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>759572442</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
